--- a/team_specific_matrix/UT Arlington_B.xlsx
+++ b/team_specific_matrix/UT Arlington_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1985294117647059</v>
+        <v>0.195906432748538</v>
       </c>
       <c r="C2">
-        <v>0.5477941176470589</v>
+        <v>0.5497076023391813</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01102941176470588</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1544117647058824</v>
+        <v>0.1549707602339181</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08823529411764706</v>
+        <v>0.09064327485380116</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006097560975609756</v>
+        <v>0.00975609756097561</v>
       </c>
       <c r="C3">
-        <v>0.01829268292682927</v>
+        <v>0.01463414634146342</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03658536585365853</v>
+        <v>0.03902439024390244</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7926829268292683</v>
+        <v>0.7658536585365854</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1463414634146341</v>
+        <v>0.1707317073170732</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.125</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.65625</v>
+        <v>0.6341463414634146</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.21875</v>
+        <v>0.2439024390243902</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07537688442211055</v>
+        <v>0.07086614173228346</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005025125628140704</v>
+        <v>0.003937007874015748</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09045226130653267</v>
+        <v>0.07086614173228346</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2613065326633166</v>
+        <v>0.2795275590551181</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03517587939698492</v>
+        <v>0.03149606299212598</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1155778894472362</v>
+        <v>0.1102362204724409</v>
       </c>
       <c r="R6">
-        <v>0.08542713567839195</v>
+        <v>0.07874015748031496</v>
       </c>
       <c r="S6">
-        <v>0.3316582914572864</v>
+        <v>0.3543307086614173</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1736526946107785</v>
+        <v>0.1691542288557214</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02395209580838323</v>
+        <v>0.02487562189054726</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02994011976047904</v>
+        <v>0.02487562189054726</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1197604790419162</v>
+        <v>0.1243781094527363</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02994011976047904</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2155688622754491</v>
+        <v>0.1990049751243781</v>
       </c>
       <c r="R7">
-        <v>0.04191616766467066</v>
+        <v>0.04975124378109453</v>
       </c>
       <c r="S7">
-        <v>0.3652694610778443</v>
+        <v>0.3781094527363184</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1022727272727273</v>
+        <v>0.1078167115902965</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01893939393939394</v>
+        <v>0.0215633423180593</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06439393939393939</v>
+        <v>0.07008086253369272</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.125</v>
+        <v>0.1266846361185984</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01893939393939394</v>
+        <v>0.0215633423180593</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1666666666666667</v>
+        <v>0.1617250673854447</v>
       </c>
       <c r="R8">
-        <v>0.08333333333333333</v>
+        <v>0.08355795148247978</v>
       </c>
       <c r="S8">
-        <v>0.4204545454545455</v>
+        <v>0.4070080862533693</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09933774834437085</v>
+        <v>0.08737864077669903</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03311258278145696</v>
+        <v>0.02427184466019417</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="F9">
-        <v>0.05298013245033113</v>
+        <v>0.05339805825242718</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.119205298013245</v>
+        <v>0.116504854368932</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01324503311258278</v>
+        <v>0.01456310679611651</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1655629139072848</v>
+        <v>0.1747572815533981</v>
       </c>
       <c r="R9">
-        <v>0.09933774834437085</v>
+        <v>0.1019417475728155</v>
       </c>
       <c r="S9">
-        <v>0.4172185430463576</v>
+        <v>0.4223300970873786</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1273821464393179</v>
+        <v>0.1227661227661228</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0160481444332999</v>
+        <v>0.01631701631701632</v>
       </c>
       <c r="E10">
-        <v>0.003009027081243731</v>
+        <v>0.002331002331002331</v>
       </c>
       <c r="F10">
-        <v>0.07923771313941826</v>
+        <v>0.08080808080808081</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1444332998996991</v>
+        <v>0.1320901320901321</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02908726178535607</v>
+        <v>0.02641802641802642</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1725175526579739</v>
+        <v>0.1872571872571873</v>
       </c>
       <c r="R10">
-        <v>0.07021063189568706</v>
+        <v>0.07303807303807304</v>
       </c>
       <c r="S10">
-        <v>0.358074222668004</v>
+        <v>0.358974358974359</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1382113821138211</v>
+        <v>0.1474358974358974</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06504065040650407</v>
+        <v>0.07371794871794872</v>
       </c>
       <c r="K11">
-        <v>0.1829268292682927</v>
+        <v>0.1891025641025641</v>
       </c>
       <c r="L11">
-        <v>0.6016260162601627</v>
+        <v>0.5801282051282052</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01219512195121951</v>
+        <v>0.009615384615384616</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7770700636942676</v>
+        <v>0.734375</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1592356687898089</v>
+        <v>0.1875</v>
       </c>
       <c r="K12">
-        <v>0.01273885350318471</v>
+        <v>0.02604166666666667</v>
       </c>
       <c r="L12">
-        <v>0.02547770700636943</v>
+        <v>0.02604166666666667</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02547770700636943</v>
+        <v>0.02604166666666667</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5862068965517241</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4137931034482759</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.02702702702702703</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0481283422459893</v>
+        <v>0.05327868852459016</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1336898395721925</v>
+        <v>0.1434426229508197</v>
       </c>
       <c r="I15">
-        <v>0.053475935828877</v>
+        <v>0.05327868852459016</v>
       </c>
       <c r="J15">
-        <v>0.3422459893048128</v>
+        <v>0.3319672131147541</v>
       </c>
       <c r="K15">
-        <v>0.0748663101604278</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0053475935828877</v>
+        <v>0.004098360655737705</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06951871657754011</v>
+        <v>0.06967213114754098</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2727272727272727</v>
+        <v>0.2786885245901639</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01058201058201058</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1375661375661376</v>
+        <v>0.1238938053097345</v>
       </c>
       <c r="I16">
-        <v>0.0582010582010582</v>
+        <v>0.07079646017699115</v>
       </c>
       <c r="J16">
-        <v>0.4391534391534391</v>
+        <v>0.4424778761061947</v>
       </c>
       <c r="K16">
-        <v>0.126984126984127</v>
+        <v>0.1371681415929203</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01058201058201058</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07407407407407407</v>
+        <v>0.06637168141592921</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1428571428571428</v>
+        <v>0.1327433628318584</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02950819672131148</v>
+        <v>0.02912621359223301</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1442622950819672</v>
+        <v>0.1359223300970874</v>
       </c>
       <c r="I17">
-        <v>0.1049180327868852</v>
+        <v>0.09951456310679611</v>
       </c>
       <c r="J17">
-        <v>0.3901639344262295</v>
+        <v>0.3907766990291262</v>
       </c>
       <c r="K17">
-        <v>0.1114754098360656</v>
+        <v>0.1092233009708738</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01639344262295082</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06885245901639345</v>
+        <v>0.08009708737864078</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1344262295081967</v>
+        <v>0.1359223300970874</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02816901408450704</v>
+        <v>0.03191489361702127</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1197183098591549</v>
+        <v>0.1223404255319149</v>
       </c>
       <c r="I18">
-        <v>0.07746478873239436</v>
+        <v>0.09042553191489362</v>
       </c>
       <c r="J18">
-        <v>0.4436619718309859</v>
+        <v>0.4148936170212766</v>
       </c>
       <c r="K18">
-        <v>0.07746478873239436</v>
+        <v>0.07446808510638298</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01408450704225352</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1056338028169014</v>
+        <v>0.101063829787234</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1338028169014084</v>
+        <v>0.148936170212766</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02423603793466807</v>
+        <v>0.0220820189274448</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1591148577449947</v>
+        <v>0.1782334384858044</v>
       </c>
       <c r="I19">
-        <v>0.09272918861959958</v>
+        <v>0.09621451104100946</v>
       </c>
       <c r="J19">
-        <v>0.3772391991570074</v>
+        <v>0.3690851735015773</v>
       </c>
       <c r="K19">
-        <v>0.1264488935721813</v>
+        <v>0.1159305993690852</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0231822971548999</v>
+        <v>0.02050473186119874</v>
       </c>
       <c r="N19">
-        <v>0.001053740779768177</v>
+        <v>0.0007886435331230284</v>
       </c>
       <c r="O19">
-        <v>0.06954689146469968</v>
+        <v>0.06545741324921135</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1264488935721813</v>
+        <v>0.1317034700315458</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UT Arlington_B.xlsx
+++ b/team_specific_matrix/UT Arlington_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.195906432748538</v>
+        <v>0.1820580474934037</v>
       </c>
       <c r="C2">
-        <v>0.5497076023391813</v>
+        <v>0.5593667546174143</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008771929824561403</v>
+        <v>0.0158311345646438</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1549707602339181</v>
+        <v>0.1424802110817942</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09064327485380116</v>
+        <v>0.1002638522427441</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.00975609756097561</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="C3">
-        <v>0.01463414634146342</v>
+        <v>0.01731601731601732</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03902439024390244</v>
+        <v>0.04329004329004329</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7658536585365854</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1707317073170732</v>
+        <v>0.1731601731601732</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1219512195121951</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6341463414634146</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2439024390243902</v>
+        <v>0.2380952380952381</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07086614173228346</v>
+        <v>0.07446808510638298</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.003937007874015748</v>
+        <v>0.003546099290780142</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07086614173228346</v>
+        <v>0.07446808510638298</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2795275590551181</v>
+        <v>0.2588652482269503</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03149606299212598</v>
+        <v>0.02836879432624113</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1102362204724409</v>
+        <v>0.1170212765957447</v>
       </c>
       <c r="R6">
-        <v>0.07874015748031496</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="S6">
-        <v>0.3543307086614173</v>
+        <v>0.3581560283687943</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1691542288557214</v>
+        <v>0.1681034482758621</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02487562189054726</v>
+        <v>0.02586206896551724</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02487562189054726</v>
+        <v>0.02155172413793104</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1243781094527363</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02985074626865672</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1990049751243781</v>
+        <v>0.1810344827586207</v>
       </c>
       <c r="R7">
-        <v>0.04975124378109453</v>
+        <v>0.04741379310344827</v>
       </c>
       <c r="S7">
-        <v>0.3781094527363184</v>
+        <v>0.3836206896551724</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1078167115902965</v>
+        <v>0.1121951219512195</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0215633423180593</v>
+        <v>0.01951219512195122</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07008086253369272</v>
+        <v>0.07073170731707316</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1266846361185984</v>
+        <v>0.1268292682926829</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0215633423180593</v>
+        <v>0.01951219512195122</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1617250673854447</v>
+        <v>0.1731707317073171</v>
       </c>
       <c r="R8">
-        <v>0.08355795148247978</v>
+        <v>0.08292682926829269</v>
       </c>
       <c r="S8">
-        <v>0.4070080862533693</v>
+        <v>0.3951219512195122</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08737864077669903</v>
+        <v>0.08583690987124463</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02427184466019417</v>
+        <v>0.02145922746781116</v>
       </c>
       <c r="E9">
-        <v>0.004854368932038835</v>
+        <v>0.004291845493562232</v>
       </c>
       <c r="F9">
-        <v>0.05339805825242718</v>
+        <v>0.05579399141630902</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.116504854368932</v>
+        <v>0.111587982832618</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01456310679611651</v>
+        <v>0.01716738197424893</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1747572815533981</v>
+        <v>0.1759656652360515</v>
       </c>
       <c r="R9">
-        <v>0.1019417475728155</v>
+        <v>0.1030042918454936</v>
       </c>
       <c r="S9">
-        <v>0.4223300970873786</v>
+        <v>0.4248927038626609</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1227661227661228</v>
+        <v>0.1229796205200281</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01631701631701632</v>
+        <v>0.01546029515108925</v>
       </c>
       <c r="E10">
-        <v>0.002331002331002331</v>
+        <v>0.002108222066057625</v>
       </c>
       <c r="F10">
-        <v>0.08080808080808081</v>
+        <v>0.08292340126493324</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1320901320901321</v>
+        <v>0.1314125087842586</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02641802641802642</v>
+        <v>0.02600140548137737</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1872571872571873</v>
+        <v>0.185523541813071</v>
       </c>
       <c r="R10">
-        <v>0.07303807303807304</v>
+        <v>0.07308503162333099</v>
       </c>
       <c r="S10">
-        <v>0.358974358974359</v>
+        <v>0.3605059732958538</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1474358974358974</v>
+        <v>0.1361111111111111</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07371794871794872</v>
+        <v>0.075</v>
       </c>
       <c r="K11">
-        <v>0.1891025641025641</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="L11">
-        <v>0.5801282051282052</v>
+        <v>0.6027777777777777</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009615384615384616</v>
+        <v>0.008333333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.734375</v>
+        <v>0.7521739130434782</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1875</v>
+        <v>0.1782608695652174</v>
       </c>
       <c r="K12">
-        <v>0.02604166666666667</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="L12">
-        <v>0.02604166666666667</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02604166666666667</v>
+        <v>0.02173913043478261</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5945945945945946</v>
+        <v>0.6</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3783783783783784</v>
+        <v>0.375</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02702702702702703</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.05327868852459016</v>
+        <v>0.05109489051094891</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1434426229508197</v>
+        <v>0.1496350364963504</v>
       </c>
       <c r="I15">
-        <v>0.05327868852459016</v>
+        <v>0.0583941605839416</v>
       </c>
       <c r="J15">
-        <v>0.3319672131147541</v>
+        <v>0.3394160583941606</v>
       </c>
       <c r="K15">
-        <v>0.06557377049180328</v>
+        <v>0.0583941605839416</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004098360655737705</v>
+        <v>0.0072992700729927</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06967213114754098</v>
+        <v>0.06204379562043796</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2786885245901639</v>
+        <v>0.2737226277372263</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.008849557522123894</v>
+        <v>0.00816326530612245</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1238938053097345</v>
+        <v>0.1265306122448979</v>
       </c>
       <c r="I16">
-        <v>0.07079646017699115</v>
+        <v>0.07346938775510205</v>
       </c>
       <c r="J16">
-        <v>0.4424778761061947</v>
+        <v>0.436734693877551</v>
       </c>
       <c r="K16">
-        <v>0.1371681415929203</v>
+        <v>0.1469387755102041</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01769911504424779</v>
+        <v>0.0163265306122449</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06637168141592921</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1327433628318584</v>
+        <v>0.1306122448979592</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02912621359223301</v>
+        <v>0.02838427947598253</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1359223300970874</v>
+        <v>0.1310043668122271</v>
       </c>
       <c r="I17">
-        <v>0.09951456310679611</v>
+        <v>0.09388646288209607</v>
       </c>
       <c r="J17">
-        <v>0.3907766990291262</v>
+        <v>0.388646288209607</v>
       </c>
       <c r="K17">
-        <v>0.1092233009708738</v>
+        <v>0.1179039301310044</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01941747572815534</v>
+        <v>0.01746724890829694</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.08009708737864078</v>
+        <v>0.08078602620087336</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1359223300970874</v>
+        <v>0.1419213973799127</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03191489361702127</v>
+        <v>0.02870813397129187</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1223404255319149</v>
+        <v>0.1339712918660287</v>
       </c>
       <c r="I18">
-        <v>0.09042553191489362</v>
+        <v>0.08133971291866028</v>
       </c>
       <c r="J18">
-        <v>0.4148936170212766</v>
+        <v>0.4114832535885167</v>
       </c>
       <c r="K18">
-        <v>0.07446808510638298</v>
+        <v>0.08133971291866028</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01595744680851064</v>
+        <v>0.01913875598086124</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.101063829787234</v>
+        <v>0.1100478468899522</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.148936170212766</v>
+        <v>0.1339712918660287</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0220820189274448</v>
+        <v>0.02068473609129814</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1782334384858044</v>
+        <v>0.1761768901569187</v>
       </c>
       <c r="I19">
-        <v>0.09621451104100946</v>
+        <v>0.1005706134094151</v>
       </c>
       <c r="J19">
-        <v>0.3690851735015773</v>
+        <v>0.3666191155492154</v>
       </c>
       <c r="K19">
-        <v>0.1159305993690852</v>
+        <v>0.1212553495007133</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02050473186119874</v>
+        <v>0.01997146932952924</v>
       </c>
       <c r="N19">
-        <v>0.0007886435331230284</v>
+        <v>0.0007132667617689016</v>
       </c>
       <c r="O19">
-        <v>0.06545741324921135</v>
+        <v>0.06776034236804565</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1317034700315458</v>
+        <v>0.1262482168330956</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UT Arlington_B.xlsx
+++ b/team_specific_matrix/UT Arlington_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1820580474934037</v>
+        <v>0.1790281329923274</v>
       </c>
       <c r="C2">
-        <v>0.5593667546174143</v>
+        <v>0.5677749360613811</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0158311345646438</v>
+        <v>0.01534526854219949</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1424802110817942</v>
+        <v>0.1381074168797954</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1002638522427441</v>
+        <v>0.09974424552429667</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008658008658008658</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="C3">
-        <v>0.01731601731601732</v>
+        <v>0.02066115702479339</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04329004329004329</v>
+        <v>0.04132231404958678</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7575757575757576</v>
+        <v>0.7603305785123967</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1731601731601732</v>
+        <v>0.1694214876033058</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07446808510638298</v>
+        <v>0.0711864406779661</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.003546099290780142</v>
+        <v>0.003389830508474576</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07446808510638298</v>
+        <v>0.07457627118644068</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2588652482269503</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02836879432624113</v>
+        <v>0.03050847457627119</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1170212765957447</v>
+        <v>0.1152542372881356</v>
       </c>
       <c r="R6">
-        <v>0.0851063829787234</v>
+        <v>0.08135593220338982</v>
       </c>
       <c r="S6">
-        <v>0.3581560283687943</v>
+        <v>0.3694915254237288</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1681034482758621</v>
+        <v>0.1659574468085106</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02586206896551724</v>
+        <v>0.02553191489361702</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02155172413793104</v>
+        <v>0.02978723404255319</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1379310344827586</v>
+        <v>0.1361702127659574</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03448275862068965</v>
+        <v>0.03404255319148936</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1810344827586207</v>
+        <v>0.1787234042553192</v>
       </c>
       <c r="R7">
-        <v>0.04741379310344827</v>
+        <v>0.04680851063829787</v>
       </c>
       <c r="S7">
-        <v>0.3836206896551724</v>
+        <v>0.3829787234042553</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1121951219512195</v>
+        <v>0.1183294663573086</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01951219512195122</v>
+        <v>0.0185614849187935</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07073170731707316</v>
+        <v>0.06728538283062645</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1268292682926829</v>
+        <v>0.122969837587007</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01951219512195122</v>
+        <v>0.0185614849187935</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1731707317073171</v>
+        <v>0.1647331786542924</v>
       </c>
       <c r="R8">
-        <v>0.08292682926829269</v>
+        <v>0.08120649651972157</v>
       </c>
       <c r="S8">
-        <v>0.3951219512195122</v>
+        <v>0.4083526682134571</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08583690987124463</v>
+        <v>0.08438818565400844</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02145922746781116</v>
+        <v>0.02109704641350211</v>
       </c>
       <c r="E9">
-        <v>0.004291845493562232</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="F9">
-        <v>0.05579399141630902</v>
+        <v>0.05907172995780591</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.111587982832618</v>
+        <v>0.109704641350211</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01716738197424893</v>
+        <v>0.01687763713080169</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1759656652360515</v>
+        <v>0.1729957805907173</v>
       </c>
       <c r="R9">
-        <v>0.1030042918454936</v>
+        <v>0.1012658227848101</v>
       </c>
       <c r="S9">
-        <v>0.4248927038626609</v>
+        <v>0.4303797468354431</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1229796205200281</v>
+        <v>0.1231292517006803</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01546029515108925</v>
+        <v>0.01496598639455782</v>
       </c>
       <c r="E10">
-        <v>0.002108222066057625</v>
+        <v>0.002040816326530612</v>
       </c>
       <c r="F10">
-        <v>0.08292340126493324</v>
+        <v>0.08367346938775511</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1314125087842586</v>
+        <v>0.1319727891156462</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02600140548137737</v>
+        <v>0.02517006802721088</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.185523541813071</v>
+        <v>0.1870748299319728</v>
       </c>
       <c r="R10">
-        <v>0.07308503162333099</v>
+        <v>0.07278911564625851</v>
       </c>
       <c r="S10">
-        <v>0.3605059732958538</v>
+        <v>0.3591836734693877</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1361111111111111</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.075</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="K11">
-        <v>0.1777777777777778</v>
+        <v>0.1758241758241758</v>
       </c>
       <c r="L11">
-        <v>0.6027777777777777</v>
+        <v>0.6043956043956044</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.008333333333333333</v>
+        <v>0.008241758241758242</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7521739130434782</v>
+        <v>0.7510729613733905</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1782608695652174</v>
+        <v>0.1802575107296137</v>
       </c>
       <c r="K12">
-        <v>0.02608695652173913</v>
+        <v>0.02575107296137339</v>
       </c>
       <c r="L12">
-        <v>0.02173913043478261</v>
+        <v>0.02145922746781116</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02173913043478261</v>
+        <v>0.02145922746781116</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.375</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.025</v>
+        <v>0.04651162790697674</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.05109489051094891</v>
+        <v>0.05</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1496350364963504</v>
+        <v>0.1535714285714286</v>
       </c>
       <c r="I15">
-        <v>0.0583941605839416</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="J15">
-        <v>0.3394160583941606</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="K15">
-        <v>0.0583941605839416</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0072992700729927</v>
+        <v>0.01071428571428571</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06204379562043796</v>
+        <v>0.06071428571428571</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2737226277372263</v>
+        <v>0.2714285714285714</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.00816326530612245</v>
+        <v>0.007843137254901961</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1265306122448979</v>
+        <v>0.1254901960784314</v>
       </c>
       <c r="I16">
-        <v>0.07346938775510205</v>
+        <v>0.07450980392156863</v>
       </c>
       <c r="J16">
-        <v>0.436734693877551</v>
+        <v>0.4352941176470588</v>
       </c>
       <c r="K16">
-        <v>0.1469387755102041</v>
+        <v>0.1450980392156863</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0163265306122449</v>
+        <v>0.01568627450980392</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06122448979591837</v>
+        <v>0.06274509803921569</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1306122448979592</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02838427947598253</v>
+        <v>0.02978723404255319</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1310043668122271</v>
+        <v>0.1340425531914894</v>
       </c>
       <c r="I17">
-        <v>0.09388646288209607</v>
+        <v>0.09361702127659574</v>
       </c>
       <c r="J17">
-        <v>0.388646288209607</v>
+        <v>0.3851063829787234</v>
       </c>
       <c r="K17">
-        <v>0.1179039301310044</v>
+        <v>0.1191489361702128</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01746724890829694</v>
+        <v>0.01702127659574468</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.08078602620087336</v>
+        <v>0.07872340425531915</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1419213973799127</v>
+        <v>0.1425531914893617</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02870813397129187</v>
+        <v>0.02830188679245283</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1339712918660287</v>
+        <v>0.1367924528301887</v>
       </c>
       <c r="I18">
-        <v>0.08133971291866028</v>
+        <v>0.08018867924528301</v>
       </c>
       <c r="J18">
-        <v>0.4114832535885167</v>
+        <v>0.4103773584905661</v>
       </c>
       <c r="K18">
-        <v>0.08133971291866028</v>
+        <v>0.08018867924528301</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01913875598086124</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1100478468899522</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1339712918660287</v>
+        <v>0.1320754716981132</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02068473609129814</v>
+        <v>0.0205620287868403</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1761768901569187</v>
+        <v>0.1788896504455106</v>
       </c>
       <c r="I19">
-        <v>0.1005706134094151</v>
+        <v>0.09801233721727211</v>
       </c>
       <c r="J19">
-        <v>0.3666191155492154</v>
+        <v>0.3701165181631254</v>
       </c>
       <c r="K19">
-        <v>0.1212553495007133</v>
+        <v>0.1172035640849897</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01997146932952924</v>
+        <v>0.0205620287868403</v>
       </c>
       <c r="N19">
-        <v>0.0007132667617689016</v>
+        <v>0.0006854009595613434</v>
       </c>
       <c r="O19">
-        <v>0.06776034236804565</v>
+        <v>0.06716929403701165</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1262482168330956</v>
+        <v>0.1267991775188485</v>
       </c>
     </row>
   </sheetData>
